--- a/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval_by_QUESTION.xlsx
+++ b/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval_by_QUESTION.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,77 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>R2.scale_trim</t>
-  </si>
-  <si>
-    <t>RMSE.scale_trim</t>
-  </si>
-  <si>
-    <t>SMD.scale_trim</t>
-  </si>
-  <si>
-    <t>SMD.scale_trim_round</t>
-  </si>
-  <si>
-    <t>adj_agr.scale_trim_round</t>
-  </si>
-  <si>
-    <t>corr.scale_trim</t>
-  </si>
-  <si>
-    <t>exact_agr.scale_trim_round</t>
-  </si>
-  <si>
-    <t>h_mean</t>
-  </si>
-  <si>
-    <t>h_sd</t>
-  </si>
-  <si>
-    <t>kappa.scale_trim_round</t>
-  </si>
-  <si>
-    <t>sys_mean.scale_trim</t>
-  </si>
-  <si>
-    <t>sys_mean.scale_trim_round</t>
-  </si>
-  <si>
-    <t>sys_sd.scale_trim</t>
-  </si>
-  <si>
-    <t>sys_sd.scale_trim_round</t>
-  </si>
-  <si>
-    <t>wtkappa.scale_trim_round</t>
-  </si>
-  <si>
-    <t>All data</t>
-  </si>
-  <si>
-    <t>QUESTION_1</t>
-  </si>
-  <si>
-    <t>QUESTION_2</t>
-  </si>
-  <si>
-    <t>QUESTION_3</t>
-  </si>
-  <si>
-    <t>QUESTION_4</t>
-  </si>
-  <si>
-    <t>QUESTION_5</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,60 +366,94 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>R2.scale_trim</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE.scale_trim</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>SMD.scale_trim</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>SMD.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>adj_agr.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>corr.scale_trim</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>exact_agr.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>h_mean</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>h_sd</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>kappa.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>sys_mean.scale_trim</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>sys_mean.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>sys_sd.scale_trim</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>sys_sd.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>wtkappa.scale_trim_round</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>16</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>All data</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -502,10 +465,10 @@
         <v>0.6189327249996216</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02324751973535285</v>
+        <v>-0.02351246133036713</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01054416404922412</v>
+        <v>0.01081937260331701</v>
       </c>
       <c r="G2" t="n">
         <v>99</v>
@@ -538,12 +501,14 @@
         <v>0.9719172370000901</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.782122905027933</v>
+        <v>0.7821229050279329</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>17</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>QUESTION_1</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>40</v>
@@ -555,10 +520,10 @@
         <v>0.6112970223483144</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01162334957758026</v>
+        <v>-0.01163706704162387</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.02636041012306077</v>
+        <v>0.02677520802357803</v>
       </c>
       <c r="G3" t="n">
         <v>97.5</v>
@@ -594,9 +559,11 @@
         <v>0.7702702702702703</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
-        <v>18</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>QUESTION_2</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>40</v>
@@ -608,7 +575,7 @@
         <v>0.6447383440763595</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0300768975131298</v>
+        <v>-0.03011239319855386</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -644,12 +611,14 @@
         <v>0.9870962335856491</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7777777777777777</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
-        <v>19</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>QUESTION_3</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>40</v>
@@ -661,10 +630,10 @@
         <v>0.6211045560552616</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02836271304262913</v>
+        <v>-0.02839618570846824</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.05272082024612153</v>
+        <v>0.05355041604715606</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -700,9 +669,11 @@
         <v>0.8285714285714285</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>20</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>QUESTION_4</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>40</v>
@@ -714,10 +685,10 @@
         <v>0.5863017624324911</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02212661061487138</v>
+        <v>-0.02215272365427458</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.05272082024612153</v>
+        <v>0.05355041604715606</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -753,9 +724,11 @@
         <v>0.8108108108108109</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" t="s">
-        <v>21</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>QUESTION_5</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>40</v>
@@ -767,10 +740,10 @@
         <v>0.62967958704328</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02404802792855174</v>
+        <v>-0.02407640855637574</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07908123036918277</v>
+        <v>-0.08032562407073457</v>
       </c>
       <c r="G7" t="n">
         <v>97.5</v>

--- a/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval_by_QUESTION.xlsx
+++ b/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval_by_QUESTION.xlsx
@@ -465,10 +465,10 @@
         <v>0.6189327249996216</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.02351246133036713</v>
+        <v>8.43769498715119e-17</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01081937260331701</v>
+        <v>1.576516694967722e-16</v>
       </c>
       <c r="G2" t="n">
         <v>99</v>
@@ -520,10 +520,10 @@
         <v>0.6112970223483144</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.01163706704162387</v>
+        <v>0.01149607432881209</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02677520802357803</v>
+        <v>0.01543341287607883</v>
       </c>
       <c r="G3" t="n">
         <v>97.5</v>
@@ -575,10 +575,10 @@
         <v>0.6447383440763595</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.03011239319855386</v>
+        <v>-0.006754119518834534</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0.01028894191738561</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -630,10 +630,10 @@
         <v>0.6211045560552616</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.02839618570846824</v>
+        <v>-0.005058824988670463</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05355041604715606</v>
+        <v>0.04115576766954331</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -685,10 +685,10 @@
         <v>0.5863017624324911</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.02215272365427458</v>
+        <v>0.001108556945570738</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05355041604715606</v>
+        <v>0.04115576766954331</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -740,10 +740,10 @@
         <v>0.62967958704328</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02407640855637574</v>
+        <v>-0.0007916867668774308</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.08032562407073457</v>
+        <v>-0.08745600629777898</v>
       </c>
       <c r="G7" t="n">
         <v>97.5</v>

--- a/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval_by_QUESTION.xlsx
+++ b/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval_by_QUESTION.xlsx
@@ -370,27 +370,27 @@
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>DSM.scale_trim</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DSM.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>R2.scale_trim</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>RMSE.scale_trim</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>SMD.scale_trim</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>SMD.scale_trim_round</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -456,19 +456,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>8.43769498715119e-17</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.576516694967722e-16</v>
+      </c>
+      <c r="D2" t="n">
         <v>200</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>0.5493203316759327</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>0.6189327249996216</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8.43769498715119e-17</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.576516694967722e-16</v>
       </c>
       <c r="G2" t="n">
         <v>99</v>
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.01149607432881209</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01543341287607883</v>
+      </c>
+      <c r="D3" t="n">
         <v>40</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>0.5603717064330405</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>0.6112970223483144</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.01149607432881209</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.01543341287607883</v>
       </c>
       <c r="G3" t="n">
         <v>97.5</v>
@@ -566,19 +566,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>-0.006754119518834534</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.01028894191738561</v>
+      </c>
+      <c r="D4" t="n">
         <v>40</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>0.510955844326675</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>0.6447383440763595</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-0.006754119518834534</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.01028894191738561</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -621,19 +621,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>-0.005058824988670463</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.04115576766954331</v>
+      </c>
+      <c r="D5" t="n">
         <v>40</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>0.5461519181734076</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>0.6211045560552616</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-0.005058824988670463</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.04115576766954331</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0.001108556945570738</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.04115576766954331</v>
+      </c>
+      <c r="D6" t="n">
         <v>40</v>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>0.5955885216100645</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>0.5863017624324911</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.001108556945570738</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.04115576766954331</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -731,19 +731,19 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>-0.0007916867668774308</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.08745600629777898</v>
+      </c>
+      <c r="D7" t="n">
         <v>40</v>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>0.5335336678364757</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>0.62967958704328</v>
-      </c>
-      <c r="E7" t="n">
-        <v>-0.0007916867668774308</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-0.08745600629777898</v>
       </c>
       <c r="G7" t="n">
         <v>97.5</v>

--- a/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval_by_QUESTION.xlsx
+++ b/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval_by_QUESTION.xlsx
@@ -445,7 +445,7 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>wtkappa.scale_trim_round</t>
+          <t>wtkappa.scale_trim</t>
         </is>
       </c>
     </row>
@@ -456,10 +456,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.43769498715119e-17</v>
+        <v>-8.43769498715119e-17</v>
       </c>
       <c r="C2" t="n">
-        <v>1.576516694967722e-16</v>
+        <v>-1.576516694967722e-16</v>
       </c>
       <c r="D2" t="n">
         <v>200</v>
@@ -501,7 +501,7 @@
         <v>0.9719172370000901</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7821229050279329</v>
+        <v>0.7808705382933534</v>
       </c>
     </row>
     <row r="3">
@@ -511,10 +511,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01149607432881209</v>
+        <v>-0.01149607432881209</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01543341287607883</v>
+        <v>-0.01543341287607883</v>
       </c>
       <c r="D3" t="n">
         <v>40</v>
@@ -556,7 +556,7 @@
         <v>1.012422836565829</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7702702702702703</v>
+        <v>0.7896756462802278</v>
       </c>
     </row>
     <row r="4">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.006754119518834534</v>
+        <v>0.006754119518834534</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.01028894191738561</v>
+        <v>0.01028894191738561</v>
       </c>
       <c r="D4" t="n">
         <v>40</v>
@@ -611,7 +611,7 @@
         <v>0.9870962335856491</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7777777777777777</v>
+        <v>0.7665395469417655</v>
       </c>
     </row>
     <row r="5">
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.005058824988670463</v>
+        <v>0.005058824988670463</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04115576766954331</v>
+        <v>-0.04115576766954331</v>
       </c>
       <c r="D5" t="n">
         <v>40</v>
@@ -666,7 +666,7 @@
         <v>0.95943359359198</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8285714285714285</v>
+        <v>0.7811601973293526</v>
       </c>
     </row>
     <row r="6">
@@ -676,10 +676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001108556945570738</v>
+        <v>-0.001108556945570738</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04115576766954331</v>
+        <v>-0.04115576766954331</v>
       </c>
       <c r="D6" t="n">
         <v>40</v>
@@ -721,7 +721,7 @@
         <v>1.01147265068163</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8108108108108109</v>
+        <v>0.8093308458669355</v>
       </c>
     </row>
     <row r="7">
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.0007916867668774308</v>
+        <v>0.0007916867668774308</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.08745600629777898</v>
+        <v>0.08745600629777898</v>
       </c>
       <c r="D7" t="n">
         <v>40</v>
@@ -776,7 +776,7 @@
         <v>0.9306049865682223</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7205882352941176</v>
+        <v>0.7793853523195861</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval_by_QUESTION.xlsx
+++ b/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval_by_QUESTION.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,77 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>R2.scale_trim</t>
+  </si>
+  <si>
+    <t>RMSE.scale_trim</t>
+  </si>
+  <si>
+    <t>SMD.scale_trim</t>
+  </si>
+  <si>
+    <t>SMD.scale_trim_round</t>
+  </si>
+  <si>
+    <t>adj_agr.scale_trim_round</t>
+  </si>
+  <si>
+    <t>corr.scale_trim</t>
+  </si>
+  <si>
+    <t>exact_agr.scale_trim_round</t>
+  </si>
+  <si>
+    <t>h_mean</t>
+  </si>
+  <si>
+    <t>h_sd</t>
+  </si>
+  <si>
+    <t>kappa.scale_trim_round</t>
+  </si>
+  <si>
+    <t>sys_mean.scale_trim</t>
+  </si>
+  <si>
+    <t>sys_mean.scale_trim_round</t>
+  </si>
+  <si>
+    <t>sys_sd.scale_trim</t>
+  </si>
+  <si>
+    <t>sys_sd.scale_trim_round</t>
+  </si>
+  <si>
+    <t>wtkappa.scale_trim_round</t>
+  </si>
+  <si>
+    <t>All data</t>
+  </si>
+  <si>
+    <t>QUESTION_1</t>
+  </si>
+  <si>
+    <t>QUESTION_2</t>
+  </si>
+  <si>
+    <t>QUESTION_3</t>
+  </si>
+  <si>
+    <t>QUESTION_4</t>
+  </si>
+  <si>
+    <t>QUESTION_5</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,109 +437,75 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>DSM.scale_trim</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>DSM.scale_trim_round</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>R2.scale_trim</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE.scale_trim</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>adj_agr.scale_trim_round</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>corr.scale_trim</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>exact_agr.scale_trim_round</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>h_mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>h_sd</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>kappa.scale_trim_round</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>sys_mean.scale_trim</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>sys_mean.scale_trim_round</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>sys_sd.scale_trim</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>sys_sd.scale_trim_round</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>wtkappa.scale_trim</t>
-        </is>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>All data</t>
-        </is>
+    <row r="2" spans="1:17">
+      <c r="A2" t="s">
+        <v>16</v>
       </c>
       <c r="B2" t="n">
-        <v>-8.43769498715119e-17</v>
+        <v>200</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.576516694967722e-16</v>
+        <v>0.5493203316759327</v>
       </c>
       <c r="D2" t="n">
-        <v>200</v>
+        <v>0.6189327249996216</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5493203316759327</v>
+        <v>0.02324751973535285</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6189327249996216</v>
+        <v>-0.01054416404922412</v>
       </c>
       <c r="G2" t="n">
         <v>99</v>
@@ -501,29 +538,27 @@
         <v>0.9719172370000901</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7808705382933534</v>
+        <v>0.782122905027933</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>QUESTION_1</t>
-        </is>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>17</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.01149607432881209</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01543341287607883</v>
+        <v>0.5603717064330405</v>
       </c>
       <c r="D3" t="n">
-        <v>40</v>
+        <v>0.6112970223483144</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5603717064330405</v>
+        <v>0.01162334957758026</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6112970223483144</v>
+        <v>-0.02636041012306077</v>
       </c>
       <c r="G3" t="n">
         <v>97.5</v>
@@ -556,29 +591,27 @@
         <v>1.012422836565829</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7896756462802278</v>
+        <v>0.7702702702702703</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>QUESTION_2</t>
-        </is>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>18</v>
       </c>
       <c r="B4" t="n">
-        <v>0.006754119518834534</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01028894191738561</v>
+        <v>0.510955844326675</v>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>0.6447383440763595</v>
       </c>
       <c r="E4" t="n">
-        <v>0.510955844326675</v>
+        <v>0.0300768975131298</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6447383440763595</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -611,29 +644,27 @@
         <v>0.9870962335856491</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7665395469417655</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>QUESTION_3</t>
-        </is>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>19</v>
       </c>
       <c r="B5" t="n">
-        <v>0.005058824988670463</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.04115576766954331</v>
+        <v>0.5461519181734076</v>
       </c>
       <c r="D5" t="n">
-        <v>40</v>
+        <v>0.6211045560552616</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5461519181734076</v>
+        <v>0.02836271304262913</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6211045560552616</v>
+        <v>-0.05272082024612153</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -666,29 +697,27 @@
         <v>0.95943359359198</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7811601973293526</v>
+        <v>0.8285714285714285</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>QUESTION_4</t>
-        </is>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.001108556945570738</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.04115576766954331</v>
+        <v>0.5955885216100645</v>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>0.5863017624324911</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5955885216100645</v>
+        <v>0.02212661061487138</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5863017624324911</v>
+        <v>-0.05272082024612153</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -721,29 +750,27 @@
         <v>1.01147265068163</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8093308458669355</v>
+        <v>0.8108108108108109</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>QUESTION_5</t>
-        </is>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>21</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0007916867668774308</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08745600629777898</v>
+        <v>0.5335336678364757</v>
       </c>
       <c r="D7" t="n">
-        <v>40</v>
+        <v>0.62967958704328</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5335336678364757</v>
+        <v>0.02404802792855174</v>
       </c>
       <c r="F7" t="n">
-        <v>0.62967958704328</v>
+        <v>0.07908123036918277</v>
       </c>
       <c r="G7" t="n">
         <v>97.5</v>
@@ -776,7 +803,7 @@
         <v>0.9306049865682223</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7793853523195861</v>
+        <v>0.7205882352941176</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval_by_QUESTION.xlsx
+++ b/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval_by_QUESTION.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,77 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>R2.scale_trim</t>
-  </si>
-  <si>
-    <t>RMSE.scale_trim</t>
-  </si>
-  <si>
-    <t>SMD.scale_trim</t>
-  </si>
-  <si>
-    <t>SMD.scale_trim_round</t>
-  </si>
-  <si>
-    <t>adj_agr.scale_trim_round</t>
-  </si>
-  <si>
-    <t>corr.scale_trim</t>
-  </si>
-  <si>
-    <t>exact_agr.scale_trim_round</t>
-  </si>
-  <si>
-    <t>h_mean</t>
-  </si>
-  <si>
-    <t>h_sd</t>
-  </si>
-  <si>
-    <t>kappa.scale_trim_round</t>
-  </si>
-  <si>
-    <t>sys_mean.scale_trim</t>
-  </si>
-  <si>
-    <t>sys_mean.scale_trim_round</t>
-  </si>
-  <si>
-    <t>sys_sd.scale_trim</t>
-  </si>
-  <si>
-    <t>sys_sd.scale_trim_round</t>
-  </si>
-  <si>
-    <t>wtkappa.scale_trim_round</t>
-  </si>
-  <si>
-    <t>All data</t>
-  </si>
-  <si>
-    <t>QUESTION_1</t>
-  </si>
-  <si>
-    <t>QUESTION_2</t>
-  </si>
-  <si>
-    <t>QUESTION_3</t>
-  </si>
-  <si>
-    <t>QUESTION_4</t>
-  </si>
-  <si>
-    <t>QUESTION_5</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,75 +366,109 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s"/>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>DSM.scale_trim</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DSM.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>R2.scale_trim</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE.scale_trim</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>adj_agr.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>corr.scale_trim</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>exact_agr.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>h_mean</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>h_sd</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>kappa.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>sys_mean.scale_trim</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>sys_mean.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>sys_sd.scale_trim</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>sys_sd.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>wtkappa.scale_trim</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:17">
-      <c r="A2" t="s">
-        <v>16</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>All data</t>
+        </is>
       </c>
       <c r="B2" t="n">
+        <v>-8.43769498715119e-17</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.576516694967722e-16</v>
+      </c>
+      <c r="D2" t="n">
         <v>200</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>0.5493203316759327</v>
       </c>
-      <c r="D2" t="n">
+      <c r="F2" t="n">
         <v>0.6189327249996216</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.02324751973535285</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.01054416404922412</v>
       </c>
       <c r="G2" t="n">
         <v>99</v>
@@ -538,27 +501,29 @@
         <v>0.9719172370000901</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.782122905027933</v>
+        <v>0.7808705382933534</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
-        <v>17</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>QUESTION_1</t>
+        </is>
       </c>
       <c r="B3" t="n">
+        <v>-0.01149607432881209</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.01543341287607883</v>
+      </c>
+      <c r="D3" t="n">
         <v>40</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>0.5603717064330405</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>0.6112970223483144</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.01162334957758026</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.02636041012306077</v>
       </c>
       <c r="G3" t="n">
         <v>97.5</v>
@@ -591,27 +556,29 @@
         <v>1.012422836565829</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7702702702702703</v>
+        <v>0.7896756462802278</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" t="s">
-        <v>18</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>QUESTION_2</t>
+        </is>
       </c>
       <c r="B4" t="n">
+        <v>0.006754119518834534</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01028894191738561</v>
+      </c>
+      <c r="D4" t="n">
         <v>40</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
         <v>0.510955844326675</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>0.6447383440763595</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0300768975131298</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>100</v>
@@ -644,27 +611,29 @@
         <v>0.9870962335856491</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.7665395469417655</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" t="s">
-        <v>19</v>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>QUESTION_3</t>
+        </is>
       </c>
       <c r="B5" t="n">
+        <v>0.005058824988670463</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.04115576766954331</v>
+      </c>
+      <c r="D5" t="n">
         <v>40</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
         <v>0.5461519181734076</v>
       </c>
-      <c r="D5" t="n">
+      <c r="F5" t="n">
         <v>0.6211045560552616</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.02836271304262913</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.05272082024612153</v>
       </c>
       <c r="G5" t="n">
         <v>100</v>
@@ -697,27 +666,29 @@
         <v>0.95943359359198</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.8285714285714285</v>
+        <v>0.7811601973293526</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>20</v>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>QUESTION_4</t>
+        </is>
       </c>
       <c r="B6" t="n">
+        <v>-0.001108556945570738</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.04115576766954331</v>
+      </c>
+      <c r="D6" t="n">
         <v>40</v>
       </c>
-      <c r="C6" t="n">
+      <c r="E6" t="n">
         <v>0.5955885216100645</v>
       </c>
-      <c r="D6" t="n">
+      <c r="F6" t="n">
         <v>0.5863017624324911</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.02212661061487138</v>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.05272082024612153</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
@@ -750,27 +721,29 @@
         <v>1.01147265068163</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8108108108108109</v>
+        <v>0.8093308458669355</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" t="s">
-        <v>21</v>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>QUESTION_5</t>
+        </is>
       </c>
       <c r="B7" t="n">
+        <v>0.0007916867668774308</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.08745600629777898</v>
+      </c>
+      <c r="D7" t="n">
         <v>40</v>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>0.5335336678364757</v>
       </c>
-      <c r="D7" t="n">
+      <c r="F7" t="n">
         <v>0.62967958704328</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.02404802792855174</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.07908123036918277</v>
       </c>
       <c r="G7" t="n">
         <v>97.5</v>
@@ -803,7 +776,7 @@
         <v>0.9306049865682223</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7205882352941176</v>
+        <v>0.7793853523195861</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval_by_QUESTION.xlsx
+++ b/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval_by_QUESTION.xlsx
@@ -501,7 +501,7 @@
         <v>0.9719172370000901</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.7808705382933534</v>
+        <v>0.7797696841910529</v>
       </c>
     </row>
     <row r="3">
@@ -556,7 +556,7 @@
         <v>1.012422836565829</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.7896756462802278</v>
+        <v>0.7842830816747302</v>
       </c>
     </row>
     <row r="4">
@@ -611,7 +611,7 @@
         <v>0.9870962335856491</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7665395469417655</v>
+        <v>0.7605561072558288</v>
       </c>
     </row>
     <row r="5">
@@ -666,7 +666,7 @@
         <v>0.95943359359198</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7811601973293526</v>
+        <v>0.7755512153439872</v>
       </c>
     </row>
     <row r="6">
@@ -721,7 +721,7 @@
         <v>1.01147265068163</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8093308458669355</v>
+        <v>0.8044430831097903</v>
       </c>
     </row>
     <row r="7">
@@ -776,7 +776,7 @@
         <v>0.9306049865682223</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7793853523195861</v>
+        <v>0.7737301978604616</v>
       </c>
     </row>
   </sheetData>

--- a/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval_by_QUESTION.xlsx
+++ b/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval_by_QUESTION.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,22 +50,89 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -370,82 +437,82 @@
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>h_mean</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>h_sd</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>sys_mean.scale_trim</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>sys_sd.scale_trim</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>wtkappa.scale_trim</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>corr.scale_trim</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>DSM.scale_trim</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE.scale_trim</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>R2.scale_trim</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>sys_mean.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>sys_sd.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>kappa.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>exact_agr.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>adj_agr.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>DSM.scale_trim_round</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>R2.scale_trim</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE.scale_trim</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>adj_agr.scale_trim_round</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>corr.scale_trim</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>exact_agr.scale_trim_round</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>h_mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>h_sd</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>kappa.scale_trim_round</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>sys_mean.scale_trim</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>sys_mean.scale_trim_round</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>sys_sd.scale_trim</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>sys_sd.scale_trim_round</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>wtkappa.scale_trim</t>
         </is>
       </c>
     </row>
@@ -456,52 +523,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-8.43769498715119e-17</v>
+        <v>200</v>
       </c>
       <c r="C2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9242680113386591</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.521731815875496</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9452175731243878</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.7797696841910531</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7801773732608225</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-9.325873406851315e-17</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6189327249996216</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.5493203316759327</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.9719172370000901</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.4694178334561533</v>
+      </c>
+      <c r="O2" t="n">
+        <v>64</v>
+      </c>
+      <c r="P2" t="n">
+        <v>99</v>
+      </c>
+      <c r="Q2" t="n">
         <v>-1.576516694967722e-16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>200</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5493203316759327</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.6189327249996216</v>
-      </c>
-      <c r="G2" t="n">
-        <v>99</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7801773732608226</v>
-      </c>
-      <c r="I2" t="n">
-        <v>64</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.9242680113386591</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.4694178334561533</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.521731815875496</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.9452175731243878</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.9719172370000901</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.7797696841910529</v>
       </c>
     </row>
     <row r="3">
@@ -511,52 +578,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.01149607432881209</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9336995618478525</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.510865524397958</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9512048837755814</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.7842830816747305</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7844718465545459</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-0.01149607432881217</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.6112970223483144</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5603717064330405</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.475</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.012422836565829</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.4805194805194805</v>
+      </c>
+      <c r="O3" t="n">
+        <v>65</v>
+      </c>
+      <c r="P3" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="Q3" t="n">
         <v>-0.01543341287607883</v>
-      </c>
-      <c r="D3" t="n">
-        <v>40</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5603717064330405</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.6112970223483144</v>
-      </c>
-      <c r="G3" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.7844718465545462</v>
-      </c>
-      <c r="I3" t="n">
-        <v>65</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.9336995618478525</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.4805194805194805</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3.510865524397958</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.475</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.9512048837755814</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.012422836565829</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.7842830816747302</v>
       </c>
     </row>
     <row r="4">
@@ -566,52 +633,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.006754119518834534</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9336995618478525</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3.52811592833568</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.9528707037260122</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.7605561072558289</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7610597455754697</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.006754119518834522</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.6447383440763595</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.510955844326675</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.9870962335856491</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.4165907019143118</v>
+      </c>
+      <c r="O4" t="n">
+        <v>60</v>
+      </c>
+      <c r="P4" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q4" t="n">
         <v>0.01028894191738561</v>
-      </c>
-      <c r="D4" t="n">
-        <v>40</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.510955844326675</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.6447383440763595</v>
-      </c>
-      <c r="G4" t="n">
-        <v>100</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7610597455754698</v>
-      </c>
-      <c r="I4" t="n">
-        <v>60</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.9336995618478525</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.4165907019143118</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3.52811592833568</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.9528707037260122</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.9870962335856491</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.7605561072558288</v>
       </c>
     </row>
     <row r="5">
@@ -621,52 +688,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005058824988670463</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9336995618478525</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.526513506154147</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9435584036333716</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.7755512153439874</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.775911343772783</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.005058824988670418</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.6211045560552615</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5461519181734077</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.95943359359198</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5596330275229358</v>
+      </c>
+      <c r="O5" t="n">
+        <v>70</v>
+      </c>
+      <c r="P5" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q5" t="n">
         <v>-0.04115576766954331</v>
-      </c>
-      <c r="D5" t="n">
-        <v>40</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5461519181734076</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.6211045560552616</v>
-      </c>
-      <c r="G5" t="n">
-        <v>100</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.7759113437727831</v>
-      </c>
-      <c r="I5" t="n">
-        <v>70</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.9336995618478525</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.5596330275229358</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3.526513506154147</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.9435584036333717</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.95943359359198</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.7755512153439872</v>
       </c>
     </row>
     <row r="6">
@@ -676,52 +743,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.001108556945570738</v>
+        <v>40</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.04115576766954331</v>
+        <v>3.5</v>
       </c>
       <c r="D6" t="n">
-        <v>40</v>
+        <v>0.9336995618478525</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5955885216100645</v>
+        <v>3.520683988369733</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5863017624324911</v>
+        <v>0.9646953505756862</v>
       </c>
       <c r="G6" t="n">
-        <v>100</v>
+        <v>0.8044430831097905</v>
       </c>
       <c r="H6" t="n">
         <v>0.8050680429782734</v>
       </c>
       <c r="I6" t="n">
+        <v>-0.001108556945570793</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5863017624324912</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5955885216100643</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01147265068163</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.4843462246777165</v>
+      </c>
+      <c r="O6" t="n">
         <v>65</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.9336995618478525</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.4843462246777165</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3.520683988369733</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.9646953505756862</v>
-      </c>
       <c r="P6" t="n">
-        <v>1.01147265068163</v>
+        <v>100</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8044430831097903</v>
+        <v>-0.04115576766954331</v>
       </c>
     </row>
     <row r="7">
@@ -731,55 +798,55 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0007916867668774308</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9336995618478525</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.522480132119958</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9617353297337229</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.7737301978604618</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.7742921256011516</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.0007916867668774863</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.62967958704328</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.5335336678364758</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.575</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.9306049865682223</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.4057567316620241</v>
+      </c>
+      <c r="O7" t="n">
+        <v>60</v>
+      </c>
+      <c r="P7" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="Q7" t="n">
         <v>0.08745600629777898</v>
-      </c>
-      <c r="D7" t="n">
-        <v>40</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5335336678364757</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.62967958704328</v>
-      </c>
-      <c r="G7" t="n">
-        <v>97.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.7742921256011517</v>
-      </c>
-      <c r="I7" t="n">
-        <v>60</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.9336995618478525</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.4057567316620241</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3.522480132119958</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.575</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.9617353297337229</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.9306049865682223</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.7737301978604616</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval_by_QUESTION.xlsx
+++ b/tests/data/experiments/lr-eval-with-xlsx-output/output/lr_eval_with_xlsx_output_eval_by_QUESTION.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,89 +50,22 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -437,82 +370,82 @@
       <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>DSM.scale_trim</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>DSM.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>N</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>R2.scale_trim</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE.scale_trim</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>adj_agr.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>corr.scale_trim</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>exact_agr.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>h_mean</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>h_sd</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>kappa.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>sys_mean.scale_trim</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>sys_mean.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>sys_sd.scale_trim</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>sys_sd.scale_trim_round</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>wtkappa.scale_trim</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>corr.scale_trim</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>DSM.scale_trim</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE.scale_trim</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>R2.scale_trim</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>sys_mean.scale_trim_round</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>sys_sd.scale_trim_round</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>kappa.scale_trim_round</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>exact_agr.scale_trim_round</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>adj_agr.scale_trim_round</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>DSM.scale_trim_round</t>
         </is>
       </c>
     </row>
@@ -523,52 +456,52 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>-8.43769498715119e-17</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.576516694967722e-16</v>
+      </c>
+      <c r="D2" t="n">
         <v>200</v>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
+        <v>0.5493203316759327</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.6189327249996216</v>
+      </c>
+      <c r="G2" t="n">
+        <v>99</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7801773732608226</v>
+      </c>
+      <c r="I2" t="n">
+        <v>64</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="K2" t="n">
         <v>0.9242680113386591</v>
       </c>
-      <c r="E2" t="n">
+      <c r="L2" t="n">
+        <v>0.4694178334561533</v>
+      </c>
+      <c r="M2" t="n">
         <v>3.521731815875496</v>
       </c>
-      <c r="F2" t="n">
+      <c r="N2" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O2" t="n">
         <v>0.9452175731243878</v>
       </c>
-      <c r="G2" t="n">
-        <v>0.7797696841910531</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.7801773732608225</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-9.325873406851315e-17</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6189327249996216</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5493203316759327</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>0.9719172370000901</v>
       </c>
-      <c r="N2" t="n">
-        <v>0.4694178334561533</v>
-      </c>
-      <c r="O2" t="n">
-        <v>64</v>
-      </c>
-      <c r="P2" t="n">
-        <v>99</v>
-      </c>
       <c r="Q2" t="n">
-        <v>-1.576516694967722e-16</v>
+        <v>0.7797696841910529</v>
       </c>
     </row>
     <row r="3">
@@ -578,52 +511,52 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>-0.01149607432881209</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.01543341287607883</v>
+      </c>
+      <c r="D3" t="n">
         <v>40</v>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
+        <v>0.5603717064330405</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6112970223483144</v>
+      </c>
+      <c r="G3" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7844718465545462</v>
+      </c>
+      <c r="I3" t="n">
+        <v>65</v>
+      </c>
+      <c r="J3" t="n">
         <v>3.5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="K3" t="n">
         <v>0.9336995618478525</v>
       </c>
-      <c r="E3" t="n">
+      <c r="L3" t="n">
+        <v>0.4805194805194805</v>
+      </c>
+      <c r="M3" t="n">
         <v>3.510865524397958</v>
       </c>
-      <c r="F3" t="n">
+      <c r="N3" t="n">
+        <v>3.475</v>
+      </c>
+      <c r="O3" t="n">
         <v>0.9512048837755814</v>
       </c>
-      <c r="G3" t="n">
-        <v>0.7842830816747305</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.7844718465545459</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-0.01149607432881217</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6112970223483144</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.5603717064330405</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.475</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="P3" t="n">
         <v>1.012422836565829</v>
       </c>
-      <c r="N3" t="n">
-        <v>0.4805194805194805</v>
-      </c>
-      <c r="O3" t="n">
-        <v>65</v>
-      </c>
-      <c r="P3" t="n">
-        <v>97.5</v>
-      </c>
       <c r="Q3" t="n">
-        <v>-0.01543341287607883</v>
+        <v>0.7842830816747302</v>
       </c>
     </row>
     <row r="4">
@@ -633,52 +566,52 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0.006754119518834534</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01028894191738561</v>
+      </c>
+      <c r="D4" t="n">
         <v>40</v>
       </c>
-      <c r="C4" t="n">
+      <c r="E4" t="n">
+        <v>0.510955844326675</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6447383440763595</v>
+      </c>
+      <c r="G4" t="n">
+        <v>100</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.7610597455754698</v>
+      </c>
+      <c r="I4" t="n">
+        <v>60</v>
+      </c>
+      <c r="J4" t="n">
         <v>3.5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="K4" t="n">
         <v>0.9336995618478525</v>
       </c>
-      <c r="E4" t="n">
+      <c r="L4" t="n">
+        <v>0.4165907019143118</v>
+      </c>
+      <c r="M4" t="n">
         <v>3.52811592833568</v>
       </c>
-      <c r="F4" t="n">
+      <c r="N4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.9528707037260122</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.7605561072558289</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.7610597455754697</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.006754119518834522</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6447383440763595</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.510955844326675</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="P4" t="n">
         <v>0.9870962335856491</v>
       </c>
-      <c r="N4" t="n">
-        <v>0.4165907019143118</v>
-      </c>
-      <c r="O4" t="n">
-        <v>60</v>
-      </c>
-      <c r="P4" t="n">
-        <v>100</v>
-      </c>
       <c r="Q4" t="n">
-        <v>0.01028894191738561</v>
+        <v>0.7605561072558288</v>
       </c>
     </row>
     <row r="5">
@@ -688,52 +621,52 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0.005058824988670463</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.04115576766954331</v>
+      </c>
+      <c r="D5" t="n">
         <v>40</v>
       </c>
-      <c r="C5" t="n">
+      <c r="E5" t="n">
+        <v>0.5461519181734076</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.6211045560552616</v>
+      </c>
+      <c r="G5" t="n">
+        <v>100</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7759113437727831</v>
+      </c>
+      <c r="I5" t="n">
+        <v>70</v>
+      </c>
+      <c r="J5" t="n">
         <v>3.5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="K5" t="n">
         <v>0.9336995618478525</v>
       </c>
-      <c r="E5" t="n">
+      <c r="L5" t="n">
+        <v>0.5596330275229358</v>
+      </c>
+      <c r="M5" t="n">
         <v>3.526513506154147</v>
       </c>
-      <c r="F5" t="n">
-        <v>0.9435584036333716</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.7755512153439874</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.775911343772783</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.005058824988670418</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6211045560552615</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.5461519181734077</v>
-      </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>3.45</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
+        <v>0.9435584036333717</v>
+      </c>
+      <c r="P5" t="n">
         <v>0.95943359359198</v>
       </c>
-      <c r="N5" t="n">
-        <v>0.5596330275229358</v>
-      </c>
-      <c r="O5" t="n">
-        <v>70</v>
-      </c>
-      <c r="P5" t="n">
-        <v>100</v>
-      </c>
       <c r="Q5" t="n">
-        <v>-0.04115576766954331</v>
+        <v>0.7755512153439872</v>
       </c>
     </row>
     <row r="6">
@@ -743,52 +676,52 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>-0.001108556945570738</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.04115576766954331</v>
+      </c>
+      <c r="D6" t="n">
         <v>40</v>
       </c>
-      <c r="C6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9336995618478525</v>
-      </c>
       <c r="E6" t="n">
-        <v>3.520683988369733</v>
+        <v>0.5955885216100645</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9646953505756862</v>
+        <v>0.5863017624324911</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8044430831097905</v>
+        <v>100</v>
       </c>
       <c r="H6" t="n">
         <v>0.8050680429782734</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.001108556945570793</v>
+        <v>65</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5863017624324912</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5955885216100643</v>
+        <v>0.9336995618478525</v>
       </c>
       <c r="L6" t="n">
+        <v>0.4843462246777165</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.520683988369733</v>
+      </c>
+      <c r="N6" t="n">
         <v>3.45</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
+        <v>0.9646953505756862</v>
+      </c>
+      <c r="P6" t="n">
         <v>1.01147265068163</v>
       </c>
-      <c r="N6" t="n">
-        <v>0.4843462246777165</v>
-      </c>
-      <c r="O6" t="n">
-        <v>65</v>
-      </c>
-      <c r="P6" t="n">
-        <v>100</v>
-      </c>
       <c r="Q6" t="n">
-        <v>-0.04115576766954331</v>
+        <v>0.8044430831097903</v>
       </c>
     </row>
     <row r="7">
@@ -798,55 +731,55 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0.0007916867668774308</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.08745600629777898</v>
+      </c>
+      <c r="D7" t="n">
         <v>40</v>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
+        <v>0.5335336678364757</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.62967958704328</v>
+      </c>
+      <c r="G7" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.7742921256011517</v>
+      </c>
+      <c r="I7" t="n">
+        <v>60</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="K7" t="n">
         <v>0.9336995618478525</v>
       </c>
-      <c r="E7" t="n">
+      <c r="L7" t="n">
+        <v>0.4057567316620241</v>
+      </c>
+      <c r="M7" t="n">
         <v>3.522480132119958</v>
       </c>
-      <c r="F7" t="n">
+      <c r="N7" t="n">
+        <v>3.575</v>
+      </c>
+      <c r="O7" t="n">
         <v>0.9617353297337229</v>
       </c>
-      <c r="G7" t="n">
-        <v>0.7737301978604618</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.7742921256011516</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.0007916867668774863</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.62967958704328</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.5335336678364758</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.575</v>
-      </c>
-      <c r="M7" t="n">
+      <c r="P7" t="n">
         <v>0.9306049865682223</v>
       </c>
-      <c r="N7" t="n">
-        <v>0.4057567316620241</v>
-      </c>
-      <c r="O7" t="n">
-        <v>60</v>
-      </c>
-      <c r="P7" t="n">
-        <v>97.5</v>
-      </c>
       <c r="Q7" t="n">
-        <v>0.08745600629777898</v>
+        <v>0.7737301978604616</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>